--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdsdd\OneDrive\Desktop\SlidetiengViet-2017-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DangKhoa\Desktop\doan1\Project-1-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{9F848671-CF9B-3A4B-93F0-0CB15249AC6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3E4CA42A-D987-4C9A-A8B5-D4CA8AF9F291}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -121,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -223,15 +222,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Kế Hoạch-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Kế Hoạch-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -577,11 +576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -595,16 +594,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -622,16 +621,16 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -773,7 +772,9 @@
       <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -803,8 +804,12 @@
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="7">
         <v>43745</v>
       </c>
@@ -834,7 +839,9 @@
         <v>24</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="7">
         <v>43752</v>
       </c>
@@ -860,15 +867,19 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="19">
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="17">
         <v>43759</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>43765</v>
       </c>
       <c r="G9" s="7"/>
@@ -890,11 +901,15 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
@@ -920,7 +935,9 @@
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="7">
         <v>43766</v>
@@ -950,12 +967,16 @@
       <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="19">
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17">
         <v>43773</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>43779</v>
       </c>
       <c r="G12" s="7"/>
@@ -981,9 +1002,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
